--- a/data/supp_tables/Supplementary Table 8.xlsx
+++ b/data/supp_tables/Supplementary Table 8.xlsx
@@ -1,118 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\postdoc\papers\STAP-seq\STAP-manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\postdoc\papers\STAP-seq\STAP-manuscript\code\data\supp_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483D2564-F47E-4CE8-B5A8-41591FF559B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC3DA8-167F-416E-8A7E-CEC6F9B9D13D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="4130" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="4020" windowWidth="28790" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TFIIB accessions" sheetId="1" r:id="rId1"/>
+    <sheet name="UTRs and 35S" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
-  <si>
-    <t>Supplementary Table 8 | Uniprot accessions for TFIIB and TFIIB-like proteins.</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>accession</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>Mouse</t>
-  </si>
-  <si>
-    <t>Drosophila</t>
-  </si>
-  <si>
-    <t>Arabidopsis</t>
-  </si>
-  <si>
-    <t>Soybean</t>
-  </si>
-  <si>
-    <t>Tobacco</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Maize</t>
-  </si>
-  <si>
-    <t>Sorghum</t>
-  </si>
-  <si>
-    <t>Q00403</t>
-  </si>
-  <si>
-    <t>P62915</t>
-  </si>
-  <si>
-    <t>P29052</t>
-  </si>
-  <si>
-    <t>P48512</t>
-  </si>
-  <si>
-    <t>P48513</t>
-  </si>
-  <si>
-    <t>A0A1S3YMX6</t>
-  </si>
-  <si>
-    <t>Q8W0W3</t>
-  </si>
-  <si>
-    <t>B4FHS1</t>
-  </si>
-  <si>
-    <t>C5X694</t>
-  </si>
-  <si>
-    <t>A0A3L6EB89</t>
-  </si>
-  <si>
-    <t>TFIIB</t>
-  </si>
-  <si>
-    <t>TFIIB-like</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>used for</t>
+  </si>
+  <si>
+    <t>control constructs</t>
+  </si>
+  <si>
+    <t>libraries with enhancer</t>
+  </si>
+  <si>
+    <t>CCCGTCCGAACTCCGAACCCCAGAACAGAGCAAAGCCTCCTCGGCCTCCCTGTCCCCAGCCTTCCCCG</t>
+  </si>
+  <si>
+    <t>Maize, Arabidopsis, and validation libraries</t>
+  </si>
+  <si>
+    <t>Zm00001d041672 5' UTR</t>
+  </si>
+  <si>
+    <t>SORBI_3010G047100 5'UTR</t>
+  </si>
+  <si>
+    <t>TACCACCCTCGTCTCGCTCCAATTCCCCACCGCAAATCCAGAGCCTTCCATTTCAAACACTTCGGAGCAACATCTCCCTTCTCCCCAGCCCAATCACCCGCC</t>
+  </si>
+  <si>
+    <t>GCAAGACCCTTCCTCTATATAAGGAAGTTCATTTCATTTGGAGAGGACACG</t>
+  </si>
+  <si>
+    <t>AGATCTCTCTGCCGACAGTGGTCCCAAAGATGGACCCCCACCCACGAGGAGCATCGTGGAAAAAGAAGACGTTCCAACCACGTCTTCAAAGCAAGTGGATTGATGTGACATCTCCACTGACGTAAGGGATGACGCACAATCCCACTATCCTTC</t>
+  </si>
+  <si>
+    <t>Sorghum library</t>
+  </si>
+  <si>
+    <t>Supplementary Table 8 | Sequences of 5' UTRs and the 35S promoter and enhancer.</t>
+  </si>
+  <si>
+    <t>35S minimal promoter (-46 to +5)</t>
+  </si>
+  <si>
+    <t>35S enhancer (-199 to -47)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,6 +92,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,11 +126,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,23 +434,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="171.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -489,126 +475,63 @@
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
